--- a/data/trans_camb/iP12_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP12_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 9,37</t>
+          <t>-5,26; 8,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 3,06</t>
+          <t>-8,63; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 14,01</t>
+          <t>-2,92; 13,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 10,65</t>
+          <t>-2,26; 11,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 13,09</t>
+          <t>-2,32; 14,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 8,68</t>
+          <t>-6,13; 8,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 8,38</t>
+          <t>-1,62; 7,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 6,16</t>
+          <t>-3,82; 5,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,18</t>
+          <t>-2,25; 9,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,7; 245,84</t>
+          <t>-58,22; 211,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 125,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 390,68</t>
+          <t>-46,03; 343,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 303,95</t>
+          <t>-33,9; 354,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 411,33</t>
+          <t>-33,67; 415,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 273,85</t>
+          <t>-70,18; 264,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 202,96</t>
+          <t>-20,97; 178,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 164,7</t>
+          <t>-49,22; 141,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 224,34</t>
+          <t>-28,66; 197,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,08</t>
+          <t>-0,34; 5,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,3</t>
+          <t>-2,07; 3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,89</t>
+          <t>-1,67; 3,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,75</t>
+          <t>-2,47; 3,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,43</t>
+          <t>-3,0; 2,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,71</t>
+          <t>-2,86; 2,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,7</t>
+          <t>-0,43; 3,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,14</t>
+          <t>-1,63; 2,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,53</t>
+          <t>-1,32; 2,66</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 98,97</t>
+          <t>-4,65; 96,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 61,41</t>
+          <t>-25,19; 65,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 69,75</t>
+          <t>-21,59; 74,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 64,08</t>
+          <t>-28,63; 61,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 41,09</t>
+          <t>-34,93; 40,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 50,07</t>
+          <t>-35,02; 47,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 62,73</t>
+          <t>-5,37; 61,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 36,64</t>
+          <t>-19,97; 38,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 43,04</t>
+          <t>-17,39; 46,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 5,05</t>
+          <t>-4,32; 5,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 2,98</t>
+          <t>-5,41; 2,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,84</t>
+          <t>-3,55; 5,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 9,84</t>
+          <t>0,24; 9,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 9,52</t>
+          <t>-0,03; 9,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 7,53</t>
+          <t>-1,28; 7,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,77</t>
+          <t>-0,51; 5,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,83</t>
+          <t>-1,24; 4,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,99</t>
+          <t>-1,04; 5,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 126,96</t>
+          <t>-51,28; 120,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 82,64</t>
+          <t>-65,04; 74,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 146,82</t>
+          <t>-43,52; 135,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 294,39</t>
+          <t>0,41; 292,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,96; 296,18</t>
+          <t>-4,91; 261,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 228,28</t>
+          <t>-25,06; 240,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 135,98</t>
+          <t>-9,73; 130,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 117,08</t>
+          <t>-19,19; 118,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 118,58</t>
+          <t>-15,37; 127,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,28</t>
+          <t>-0,44; 4,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,95</t>
+          <t>-2,21; 1,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,48</t>
+          <t>-0,97; 3,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,52</t>
+          <t>-0,01; 4,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,77</t>
+          <t>-0,6; 3,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,01</t>
+          <t>-1,56; 3,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,75</t>
+          <t>0,36; 3,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,17</t>
+          <t>-0,85; 2,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,61</t>
+          <t>-0,51; 2,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 75,07</t>
+          <t>-5,74; 74,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 33,63</t>
+          <t>-28,16; 34,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 59,23</t>
+          <t>-14,25; 67,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 84,32</t>
+          <t>-1,04; 80,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 69,44</t>
+          <t>-8,51; 70,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 57,8</t>
+          <t>-21,39; 54,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,37; 64,18</t>
+          <t>5,04; 63,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 37,41</t>
+          <t>-12,05; 36,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 45,19</t>
+          <t>-6,67; 46,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP12_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP12_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 11,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 13,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; 7,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 8,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,27; 3,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 13,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 8,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 5,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 8,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,85%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,84; 354,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,88; 374,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,65; 226,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,52; 270,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 126,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,78; 390,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,95; 200,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,68; 146,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,58; 199,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 8,03</t>
+          <t>-2,22; 3,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 2,6</t>
+          <t>-3,03; 2,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 13,41</t>
+          <t>-3,15; 2,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 11,91</t>
+          <t>-0,25; 5,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 14,43</t>
+          <t>-1,83; 3,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 8,32</t>
+          <t>-1,98; 3,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 7,66</t>
+          <t>-0,43; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,86</t>
+          <t>-1,74; 2,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 9,36</t>
+          <t>-1,76; 2,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-48,51%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,07%</t>
+          <t>36,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,62%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 211,02</t>
+          <t>-26,82; 68,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,02; 46,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 343,67</t>
+          <t>-36,07; 50,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 354,05</t>
+          <t>-3,36; 102,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 415,19</t>
+          <t>-23,63; 60,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,18; 264,23</t>
+          <t>-25,6; 68,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 178,38</t>
+          <t>-6,52; 66,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 141,07</t>
+          <t>-21,54; 37,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 197,23</t>
+          <t>-22,56; 38,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,19</t>
+          <t>0,63; 10,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,52</t>
+          <t>0,55; 9,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,93</t>
+          <t>-1,25; 7,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,44</t>
+          <t>-4,07; 4,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,36</t>
+          <t>-5,4; 2,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,81</t>
+          <t>-3,35; 6,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,57</t>
+          <t>-1,15; 5,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,3</t>
+          <t>-1,17; 4,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,66</t>
+          <t>-0,95; 5,48</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>58,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>-15,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>36,64%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 96,08</t>
+          <t>3,26; 310,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 65,81</t>
+          <t>4,86; 277,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 74,22</t>
+          <t>-22,1; 225,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 61,01</t>
+          <t>-51,6; 120,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 40,34</t>
+          <t>-61,24; 72,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 47,22</t>
+          <t>-41,16; 147,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 61,19</t>
+          <t>-16,61; 131,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 38,76</t>
+          <t>-18,53; 118,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 46,53</t>
+          <t>-15,68; 126,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,04</t>
+          <t>-0,06; 4,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,83</t>
+          <t>-0,88; 3,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,44</t>
+          <t>-1,52; 3,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 9,47</t>
+          <t>-0,36; 4,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 9,05</t>
+          <t>-2,2; 1,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 7,76</t>
+          <t>-1,22; 3,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,55</t>
+          <t>0,52; 3,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,82</t>
+          <t>-0,96; 2,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,27</t>
+          <t>-0,71; 2,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,5%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>14,68%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,28; 120,91</t>
+          <t>-1,3; 80,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 74,42</t>
+          <t>-11,39; 69,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 135,34</t>
+          <t>-20,48; 59,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 292,19</t>
+          <t>-6,34; 73,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 261,57</t>
+          <t>-28,43; 33,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 240,29</t>
+          <t>-15,11; 62,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 130,41</t>
+          <t>6,56; 64,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 118,98</t>
+          <t>-13,03; 37,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 127,74</t>
+          <t>-10,46; 43,51</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 4,13</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 1,93</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 3,73</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 4,34</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 3,89</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 3,04</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 3,6</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 2,16</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 2,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>28,63%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>19,43%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>33,72%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>22,9%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>13,15%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>31,08%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>16,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 74,89</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-28,16; 34,84</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-14,25; 67,78</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 80,77</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 70,0</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-21,39; 54,3</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 63,16</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-12,05; 36,95</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 46,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
